--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_Dyn_pf_sc_results_0_bus.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_Dyn_pf_sc_results_0_bus.xlsx
@@ -1127,28 +1127,28 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646413</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.69311850731211E-11</v>
+        <v>-8.693575901346954E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1198,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464772</v>
+        <v>0.9526279474464777</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172765</v>
+        <v>0.9526279821172767</v>
       </c>
       <c r="Q3">
-        <v>8.709491470083665E-08</v>
+        <v>8.709489848414896E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952627933077725</v>
+        <v>0.9526279330777255</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860255</v>
       </c>
       <c r="Q4">
-        <v>5.191988812720453E-07</v>
+        <v>5.191988552283613E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027253</v>
+        <v>0.9526279361027257</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610251</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q5">
-        <v>4.28229548344615E-07</v>
+        <v>4.282295282727104E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652246</v>
+        <v>0.9526279315652249</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985247</v>
+        <v>0.952627997998525</v>
       </c>
       <c r="Q6">
-        <v>5.6468340337205E-07</v>
+        <v>5.646833833001453E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353075</v>
+        <v>179.9999994353076</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279277839739</v>
+        <v>0.9526279277839744</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.9526280017797749</v>
       </c>
       <c r="Q7">
-        <v>6.783949515191147E-07</v>
+        <v>6.783949314472102E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277238</v>
+        <v>0.9526279270277241</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360249</v>
       </c>
       <c r="Q8">
-        <v>7.011372579253153E-07</v>
+        <v>7.011372417086288E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1552,22 +1552,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152235</v>
+        <v>0.9526279255152237</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.9526280040485248</v>
       </c>
       <c r="Q9">
-        <v>7.466218784499591E-07</v>
+        <v>7.466218583780548E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.999999253369</v>
+        <v>179.9999992533691</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027231</v>
+        <v>0.9526279240027234</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610244</v>
+        <v>0.9526280055610248</v>
       </c>
       <c r="Q10">
-        <v>7.921064924359646E-07</v>
+        <v>7.921064685088421E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1670,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464729</v>
+        <v>0.9526279232464733</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172748</v>
       </c>
       <c r="Q11">
-        <v>8.148488007932517E-07</v>
+        <v>8.148487730109114E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1729,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q12">
-        <v>1.553218233008841E-07</v>
+        <v>1.553218070841964E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q13">
-        <v>1.553218233008841E-07</v>
+        <v>1.553218070841964E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089763</v>
+        <v>0.9526279429089769</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.952627986654776</v>
+        <v>0.9526279866547763</v>
       </c>
       <c r="Q14">
-        <v>2.235487948691283E-07</v>
+        <v>2.235487676321491E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964762</v>
+        <v>0.9526279413964766</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.952627988167276</v>
       </c>
       <c r="Q15">
-        <v>2.690333777155284E-07</v>
+        <v>2.690333614988413E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339775</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297765</v>
+        <v>0.9526279836297769</v>
       </c>
       <c r="Q16">
-        <v>1.325795159907368E-07</v>
+        <v>1.325794959188313E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339775</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297765</v>
+        <v>0.9526279836297769</v>
       </c>
       <c r="Q17">
-        <v>1.325795159907368E-07</v>
+        <v>1.325794959188313E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277256</v>
+        <v>0.9526279391277263</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360256</v>
+        <v>0.9526279904360259</v>
       </c>
       <c r="Q18">
-        <v>3.372603595018137E-07</v>
+        <v>3.372603418737359E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2142,16 +2142,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027252</v>
+        <v>0.9526279361027258</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610257</v>
       </c>
       <c r="Q19">
-        <v>4.282296229934809E-07</v>
+        <v>4.282295985677191E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339748</v>
+        <v>0.9526279338339756</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297751</v>
+        <v>0.9526279957297753</v>
       </c>
       <c r="Q20">
-        <v>4.964565748739154E-07</v>
+        <v>4.964565536729123E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777248</v>
+        <v>0.9526279330777255</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860256</v>
       </c>
       <c r="Q21">
-        <v>5.191988848464678E-07</v>
+        <v>5.191988675006826E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2379,16 +2379,16 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674504</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -2872,7 +2872,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764508</v>
+        <v>29.14059842764509</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2990,7 +2990,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q12">
-        <v>29.14059841639571</v>
+        <v>29.14059841639572</v>
       </c>
       <c r="R12">
         <v>-91.10214741295322</v>
@@ -3049,7 +3049,7 @@
         <v>1.084507397637146</v>
       </c>
       <c r="Q13">
-        <v>29.14059841639571</v>
+        <v>29.14059841639572</v>
       </c>
       <c r="R13">
         <v>-91.10214741295322</v>
@@ -3108,7 +3108,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760101</v>
+        <v>29.14059841760102</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3226,7 +3226,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q16">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R16">
         <v>-91.10214741562633</v>
@@ -3285,7 +3285,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q17">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R17">
         <v>-91.10214741562633</v>
@@ -3631,16 +3631,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646413</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809508</v>
+        <v>1.102503198809507</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4006,7 +4006,7 @@
         <v>1.084507398111131</v>
       </c>
       <c r="Q8">
-        <v>29.14059842594517</v>
+        <v>29.14059842594518</v>
       </c>
       <c r="R8">
         <v>-91.10214734668656</v>
@@ -4862,49 +4862,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709823</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709823</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720003221260637E-10</v>
+        <v>1.720113386581419E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640273</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.659290263555778E-08</v>
+        <v>8.659293288567855E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5013,16 +5013,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015283</v>
+        <v>0.8660253751015289</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q4">
-        <v>9.162327801639628E-07</v>
+        <v>9.162327574343134E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5072,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515272</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179615</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415717667354121E-07</v>
+        <v>7.415717626101408E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5131,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265273</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429604</v>
+        <v>0.8660254338429616</v>
       </c>
       <c r="Q6">
-        <v>1.00356332129221E-06</v>
+        <v>1.003563310091802E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890273</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804593</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.22188961718885E-06</v>
+        <v>1.221889601400082E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5249,16 +5249,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015272</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679592</v>
+        <v>0.8660254379679605</v>
       </c>
       <c r="Q8">
-        <v>1.265554878821934E-06</v>
+        <v>1.265554844887398E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5308,16 +5308,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265275</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429588</v>
+        <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885382335859E-06</v>
+        <v>1.352885374623551E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5367,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515276</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179583</v>
+        <v>0.8660254407179601</v>
       </c>
       <c r="Q10">
-        <v>1.440215894296075E-06</v>
+        <v>1.440215894106585E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5426,22 +5426,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640278</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054582</v>
+        <v>0.8660254414054599</v>
       </c>
       <c r="Q11">
-        <v>1.483881151049038E-06</v>
+        <v>1.483881146335244E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5485,22 +5485,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015274</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679639</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.175886593139148E-07</v>
+        <v>2.175887029548367E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5544,22 +5544,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015274</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679639</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.175886593139148E-07</v>
+        <v>2.175887029548367E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5603,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390273</v>
+        <v>0.8660253840390281</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304633</v>
+        <v>0.8660254235304649</v>
       </c>
       <c r="Q14">
-        <v>3.485844281047907E-07</v>
+        <v>3.485844511751529E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5662,22 +5662,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640273</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054629</v>
+        <v>0.8660254249054641</v>
       </c>
       <c r="Q15">
-        <v>4.359149570752831E-07</v>
+        <v>4.359149657973628E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640764</v>
+        <v>179.9999995640765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5721,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890273</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q16">
-        <v>1.739234045714602E-07</v>
+        <v>1.739234484959461E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890273</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q17">
-        <v>1.739234045714602E-07</v>
+        <v>1.739234484959461E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5839,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015277</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679643</v>
       </c>
       <c r="Q18">
-        <v>5.669107094384377E-07</v>
+        <v>5.669107308169529E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5898,22 +5898,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.866025377851528</v>
+        <v>0.8660253778515287</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179636</v>
       </c>
       <c r="Q19">
-        <v>7.415717403981897E-07</v>
+        <v>7.415717493152318E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5957,22 +5957,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890283</v>
+        <v>0.8660253757890287</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725675135561214E-07</v>
+        <v>8.725675007947224E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274239</v>
+        <v>179.999999127424</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6016,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015283</v>
+        <v>0.8660253751015289</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q21">
-        <v>9.162327746345827E-07</v>
+        <v>9.162327479681549E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6114,49 +6114,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709823</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709823</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.720003221260637E-10</v>
+        <v>1.720113386581419E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6206,16 +6206,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640273</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054656</v>
       </c>
       <c r="Q3">
-        <v>8.659290263555778E-08</v>
+        <v>8.659293288567855E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6265,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015283</v>
+        <v>0.8660253751015289</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q4">
-        <v>9.162327801639628E-07</v>
+        <v>9.162327574343134E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6324,22 +6324,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515272</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179615</v>
+        <v>0.8660254297179629</v>
       </c>
       <c r="Q5">
-        <v>7.415717667354121E-07</v>
+        <v>7.415717626101408E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6383,16 +6383,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265273</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429604</v>
+        <v>0.8660254338429616</v>
       </c>
       <c r="Q6">
-        <v>1.00356332129221E-06</v>
+        <v>1.003563310091802E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6442,22 +6442,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890273</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804593</v>
+        <v>0.8660254372804609</v>
       </c>
       <c r="Q7">
-        <v>1.22188961718885E-06</v>
+        <v>1.221889601400082E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6501,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015272</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679592</v>
+        <v>0.8660254379679605</v>
       </c>
       <c r="Q8">
-        <v>1.265554878821934E-06</v>
+        <v>1.265554844887398E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6560,16 +6560,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265275</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429588</v>
+        <v>0.8660254393429604</v>
       </c>
       <c r="Q9">
-        <v>1.352885382335859E-06</v>
+        <v>1.352885374623551E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6619,16 +6619,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515276</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179583</v>
+        <v>0.8660254407179601</v>
       </c>
       <c r="Q10">
-        <v>1.440215894296075E-06</v>
+        <v>1.440215894106585E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6678,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640278</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054582</v>
+        <v>0.8660254414054599</v>
       </c>
       <c r="Q11">
-        <v>1.483881151049038E-06</v>
+        <v>1.483881146335244E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6737,22 +6737,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015274</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679639</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q12">
-        <v>2.175886593139148E-07</v>
+        <v>2.175887029548367E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6796,22 +6796,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015274</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679639</v>
+        <v>0.8660254214679654</v>
       </c>
       <c r="Q13">
-        <v>2.175886593139148E-07</v>
+        <v>2.175887029548367E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6855,22 +6855,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390273</v>
+        <v>0.8660253840390281</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304633</v>
+        <v>0.8660254235304649</v>
       </c>
       <c r="Q14">
-        <v>3.485844281047907E-07</v>
+        <v>3.485844511751529E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6914,22 +6914,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640273</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054629</v>
+        <v>0.8660254249054641</v>
       </c>
       <c r="Q15">
-        <v>4.359149570752831E-07</v>
+        <v>4.359149657973628E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640764</v>
+        <v>179.9999995640765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6973,16 +6973,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890273</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q16">
-        <v>1.739234045714602E-07</v>
+        <v>1.739234484959461E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7032,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890273</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804654</v>
       </c>
       <c r="Q17">
-        <v>1.739234045714602E-07</v>
+        <v>1.739234484959461E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7091,16 +7091,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015277</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679643</v>
       </c>
       <c r="Q18">
-        <v>5.669107094384377E-07</v>
+        <v>5.669107308169529E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7150,22 +7150,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.866025377851528</v>
+        <v>0.8660253778515287</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179636</v>
       </c>
       <c r="Q19">
-        <v>7.415717403981897E-07</v>
+        <v>7.415717493152318E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7209,22 +7209,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890283</v>
+        <v>0.8660253757890287</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725675135561214E-07</v>
+        <v>8.725675007947224E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274239</v>
+        <v>179.999999127424</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7268,16 +7268,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015283</v>
+        <v>0.8660253751015289</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q21">
-        <v>9.162327746345827E-07</v>
+        <v>9.162327479681549E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7381,22 +7381,22 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -7520,7 +7520,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -7532,7 +7532,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7588,7 +7588,7 @@
         <v>29.02648253197877</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -7635,19 +7635,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00255106503835</v>
+        <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792638</v>
+        <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380106</v>
+        <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -7700,13 +7700,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
-        <v>-91.2483935596738</v>
+        <v>-91.24839355967381</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7759,7 +7759,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7824,7 +7824,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7877,13 +7877,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
         <v>29.02648254909722</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -7933,16 +7933,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -8110,13 +8110,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8175,10 +8175,10 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448945</v>
+        <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -8234,13 +8234,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8293,13 +8293,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8355,7 +8355,7 @@
         <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -8405,7 +8405,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -8470,7 +8470,7 @@
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
         <v>-91.24839359046567</v>
@@ -8523,7 +8523,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -8535,7 +8535,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
   </sheetData>
@@ -8633,22 +8633,22 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -8772,7 +8772,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -8784,7 +8784,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8840,7 +8840,7 @@
         <v>29.02648253197877</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -8887,19 +8887,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00255106503835</v>
+        <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792638</v>
+        <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380106</v>
+        <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -8952,13 +8952,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
-        <v>-91.2483935596738</v>
+        <v>-91.24839355967381</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9011,7 +9011,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9076,7 +9076,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9129,13 +9129,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
         <v>29.02648254909722</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -9185,16 +9185,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9362,13 +9362,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9427,10 +9427,10 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448945</v>
+        <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -9486,13 +9486,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9545,13 +9545,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204942</v>
+        <v>-91.24839365204943</v>
       </c>
       <c r="S17">
-        <v>150.3745452878345</v>
+        <v>150.3745452878344</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9607,7 +9607,7 @@
         <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -9657,7 +9657,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -9722,7 +9722,7 @@
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
         <v>-91.24839359046567</v>
@@ -9775,7 +9775,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688789</v>
+        <v>0.9731342572688788</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -9787,7 +9787,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009498</v>
+        <v>150.3745453009499</v>
       </c>
     </row>
   </sheetData>
@@ -9867,7 +9867,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391567</v>
+        <v>57.73503019391566</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9885,31 +9885,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219865</v>
+        <v>0.01094540887219864</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646504</v>
+        <v>0.01094540889646505</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664721</v>
+        <v>0.6350853099664724</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585751</v>
+        <v>0.6350853098585753</v>
       </c>
       <c r="Q2">
         <v>60.00000000061768</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112926</v>
+        <v>0.635085327311294</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114499</v>
+        <v>0.6350852941114491</v>
       </c>
       <c r="Q3">
-        <v>60.0000007376207</v>
+        <v>60.00000073762071</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S3">
-        <v>120.0000009916558</v>
+        <v>120.0000009916559</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10021,19 +10021,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279428</v>
+        <v>0.6350853458279444</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906026</v>
+        <v>0.6350852838906017</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789079</v>
+        <v>60.00000083789074</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S4">
         <v>120.000002388238</v>
@@ -10080,19 +10080,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419296999</v>
+        <v>0.6350853419297012</v>
       </c>
       <c r="O5">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423599</v>
+        <v>0.635085286042359</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678134</v>
+        <v>60.00000081678137</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S5">
         <v>120.0000020942206</v>
@@ -10139,16 +10139,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770627</v>
+        <v>0.6350853477770642</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147238</v>
+        <v>0.6350852828147229</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844564</v>
+        <v>60.00000084844565</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
@@ -10198,19 +10198,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498654</v>
+        <v>0.6350853526498667</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.635085280125027</v>
+        <v>0.6350852801250261</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483251</v>
+        <v>60.00000087483254</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S7">
         <v>120.0000029027681</v>
@@ -10257,19 +10257,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244259</v>
+        <v>0.6350853536244271</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870876</v>
+        <v>0.6350852795870866</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010989</v>
+        <v>60.00000088010993</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S8">
         <v>120.0000029762724</v>
@@ -10316,22 +10316,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735467</v>
+        <v>0.6350853555735482</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.635085278511209</v>
+        <v>0.6350852785112081</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066467</v>
+        <v>60.00000089066469</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S9">
-        <v>120.000003123281</v>
+        <v>120.0000031232811</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226676</v>
+        <v>0.6350853575226689</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353301</v>
+        <v>0.6350852774353293</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121946</v>
+        <v>60.00000090121947</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S10">
         <v>120.0000032702897</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972279</v>
+        <v>0.6350853584972294</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973906</v>
+        <v>0.6350852768973897</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649687</v>
+        <v>60.00000090649688</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S11">
         <v>120.000003343794</v>
@@ -10493,22 +10493,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349737</v>
+        <v>0.6350853302349754</v>
       </c>
       <c r="O12">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976315</v>
+        <v>0.6350852924976303</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345292</v>
+        <v>60.00000075345294</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S12">
-        <v>120.0000012121687</v>
+        <v>120.0000012121688</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10552,22 +10552,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349737</v>
+        <v>0.6350853302349754</v>
       </c>
       <c r="O13">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976315</v>
+        <v>0.6350852924976303</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345292</v>
+        <v>60.00000075345294</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S13">
-        <v>120.0000012121687</v>
+        <v>120.0000012121688</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10611,22 +10611,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586558</v>
+        <v>0.6350853331586576</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838144</v>
+        <v>0.6350852908838133</v>
       </c>
       <c r="Q14">
-        <v>60.0000007692849</v>
+        <v>60.00000076928489</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S14">
-        <v>120.0000014326817</v>
+        <v>120.0000014326818</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077765</v>
+        <v>0.6350853351077779</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079353</v>
+        <v>0.6350852898079344</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983971</v>
+        <v>60.00000077983972</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S15">
-        <v>120.0000015796903</v>
+        <v>120.0000015796904</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10729,22 +10729,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604134</v>
+        <v>0.6350853292604149</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.635085293035571</v>
+        <v>0.6350852930355699</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817551</v>
+        <v>60.00000074817552</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S16">
-        <v>120.0000011386644</v>
+        <v>120.0000011386645</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10788,22 +10788,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604134</v>
+        <v>0.6350853292604149</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.635085293035571</v>
+        <v>0.6350852930355699</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817551</v>
+        <v>60.00000074817552</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S17">
-        <v>120.0000011386644</v>
+        <v>120.0000011386645</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -10847,19 +10847,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314583</v>
+        <v>0.6350853380314602</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941177</v>
+        <v>0.6350852881941168</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567176</v>
+        <v>60.00000079567172</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S18">
         <v>120.0000018002034</v>
@@ -10906,19 +10906,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297006</v>
+        <v>0.6350853419297022</v>
       </c>
       <c r="O19">
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423604</v>
+        <v>0.6350852860423595</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678125</v>
+        <v>60.0000008167812</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S19">
         <v>120.0000020942207</v>
@@ -10965,22 +10965,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533822</v>
+        <v>0.6350853448533839</v>
       </c>
       <c r="O20">
         <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285421</v>
+        <v>0.6350852844285413</v>
       </c>
       <c r="Q20">
-        <v>60.0000008326134</v>
+        <v>60.00000083261333</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S20">
-        <v>120.0000023147336</v>
+        <v>120.0000023147337</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11024,19 +11024,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279427</v>
+        <v>0.6350853458279443</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906027</v>
+        <v>0.6350852838906017</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789077</v>
+        <v>60.00000083789072</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S21">
         <v>120.000002388238</v>
@@ -11119,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391567</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11137,25 +11137,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219867</v>
+        <v>0.01094540887219866</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868894</v>
+        <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646503</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674483</v>
+        <v>0.1094540870674484</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664724</v>
+        <v>0.6350853099664723</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
@@ -11214,19 +11214,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372373</v>
+        <v>0.6350853281372376</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615857</v>
+        <v>0.6350852933615859</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271607</v>
+        <v>60.00000077271601</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S3">
         <v>120.0000010386397</v>
@@ -11273,22 +11273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538872</v>
+        <v>0.6350853466538879</v>
       </c>
       <c r="O4">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.635085283140739</v>
+        <v>0.6350852831407388</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298604</v>
+        <v>60.00000087298594</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>120.0000024352218</v>
+        <v>120.0000024352219</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -11332,22 +11332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556445</v>
+        <v>0.6350853427556449</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924959</v>
+        <v>0.635085285292496</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187664</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S5">
-        <v>120.0000021412044</v>
+        <v>120.0000021412045</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -11391,19 +11391,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030075</v>
+        <v>0.6350853486030077</v>
       </c>
       <c r="O6">
         <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648596</v>
+        <v>0.6350852820648599</v>
       </c>
       <c r="Q6">
-        <v>60.000000883541</v>
+        <v>60.00000088354091</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S6">
         <v>120.0000025822304</v>
@@ -11450,16 +11450,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758102</v>
+        <v>0.6350853534758103</v>
       </c>
       <c r="O7">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P7">
-        <v>0.635085279375163</v>
+        <v>0.6350852793751631</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992779</v>
       </c>
       <c r="R7">
         <v>-89.99999999999569</v>
@@ -11509,16 +11509,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503705</v>
+        <v>0.6350853544503708</v>
       </c>
       <c r="O8">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372234</v>
+        <v>0.6350852788372237</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520526</v>
+        <v>60.00000091520518</v>
       </c>
       <c r="R8">
         <v>-89.99999999999569</v>
@@ -11568,22 +11568,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994914</v>
+        <v>0.6350853563994917</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613449</v>
+        <v>0.6350852777613452</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576002</v>
+        <v>60.00000092575995</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S9">
-        <v>120.0000031702649</v>
+        <v>120.000003170265</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -11627,22 +11627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853583486122</v>
+        <v>0.6350853583486125</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854661</v>
+        <v>0.6350852766854664</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631481</v>
+        <v>60.00000093631473</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S10">
-        <v>120.0000033172735</v>
+        <v>120.0000033172736</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11686,22 +11686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231727</v>
+        <v>0.6350853593231731</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475265</v>
+        <v>0.6350852761475269</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159221</v>
+        <v>60.00000094159213</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S11">
-        <v>120.0000033907778</v>
+        <v>120.0000033907779</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -11745,19 +11745,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609184</v>
+        <v>0.6350853310609187</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477673</v>
+        <v>0.6350852917477674</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854821</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S12">
         <v>120.0000012591526</v>
@@ -11804,19 +11804,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609184</v>
+        <v>0.6350853310609187</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477673</v>
+        <v>0.6350852917477674</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854828</v>
+        <v>60.00000078854821</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S13">
         <v>120.0000012591526</v>
@@ -11863,19 +11863,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846004</v>
+        <v>0.6350853339846008</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.63508529013395</v>
+        <v>0.6350852901339502</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438025</v>
+        <v>60.00000080438019</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S14">
         <v>120.0000014796656</v>
@@ -11922,19 +11922,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335933721</v>
+        <v>0.6350853359337215</v>
       </c>
       <c r="O15">
         <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580712</v>
+        <v>0.6350852890580714</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493508</v>
+        <v>60.00000081493501</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S15">
         <v>120.0000016266742</v>
@@ -11981,19 +11981,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.635085330086358</v>
+        <v>0.6350853300863583</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.635085292285707</v>
+        <v>0.6350852922857071</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327081</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S16">
         <v>120.0000011856483</v>
@@ -12040,19 +12040,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.635085330086358</v>
+        <v>0.6350853300863583</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.635085292285707</v>
+        <v>0.6350852922857071</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327087</v>
+        <v>60.00000078327081</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S17">
         <v>120.0000011856483</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574028</v>
+        <v>0.6350853388574034</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
@@ -12108,13 +12108,13 @@
         <v>0.6350852874442536</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076707</v>
+        <v>60.00000083076702</v>
       </c>
       <c r="R18">
         <v>-89.99999999999578</v>
       </c>
       <c r="S18">
-        <v>120.0000018471872</v>
+        <v>120.0000018471873</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.635085342755645</v>
+        <v>0.6350853427556457</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
@@ -12167,13 +12167,13 @@
         <v>0.6350852852924965</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187653</v>
+        <v>60.00000085187646</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S19">
-        <v>120.0000021412045</v>
+        <v>120.0000021412046</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793267</v>
+        <v>0.6350853456793273</v>
       </c>
       <c r="O20">
         <v>1.100000023884844</v>
@@ -12226,13 +12226,13 @@
         <v>0.6350852836786783</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770864</v>
+        <v>60.00000086770855</v>
       </c>
       <c r="R20">
         <v>-89.99999999999579</v>
       </c>
       <c r="S20">
-        <v>120.0000023617174</v>
+        <v>120.0000023617175</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -12276,22 +12276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538873</v>
+        <v>0.6350853466538879</v>
       </c>
       <c r="O21">
         <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407391</v>
+        <v>0.6350852831407388</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298601</v>
+        <v>60.00000087298593</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S21">
-        <v>120.0000024352218</v>
+        <v>120.0000024352219</v>
       </c>
     </row>
   </sheetData>
@@ -12389,19 +12389,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219865</v>
+        <v>0.01094540887219864</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646504</v>
+        <v>0.01094540889646505</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -12537,7 +12537,7 @@
         <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -12652,7 +12652,7 @@
         <v>1.096496877622592</v>
       </c>
       <c r="Q6">
-        <v>29.92212963127639</v>
+        <v>29.9221296312764</v>
       </c>
       <c r="R6">
         <v>-89.99999999999635</v>
@@ -13245,7 +13245,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566724194</v>
@@ -13304,7 +13304,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566724194</v>
@@ -13360,7 +13360,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376641</v>
+        <v>29.92212962376642</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13537,10 +13537,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.9221296297744</v>
+        <v>29.92212962977439</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14137,22 +14137,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219867</v>
+        <v>0.01094540887219866</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868894</v>
+        <v>0.01094540888868898</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646503</v>
+        <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674483</v>
+        <v>0.1094540870674484</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.090352557053718</v>
+        <v>1.090352557053719</v>
       </c>
       <c r="O10">
         <v>1.100000023842583</v>
@@ -15389,34 +15389,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778152</v>
+        <v>0.01243796462778153</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526074</v>
+        <v>0.0124379646752608</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911724</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110768</v>
+        <v>0.5773502692110769</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690916</v>
+        <v>0.5773502691690923</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075384</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
@@ -15466,19 +15466,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857113</v>
+        <v>0.5773502855857097</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027869</v>
+        <v>0.5773502543027893</v>
       </c>
       <c r="Q3">
-        <v>60.00000076611005</v>
+        <v>60.00000076610981</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -15525,22 +15525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881848</v>
+        <v>0.577350305888181</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962949</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802646</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007619</v>
+        <v>60.00000027007601</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.0000030191493</v>
+        <v>120.000003019149</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -15584,22 +15584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139797</v>
+        <v>0.5773503016139765</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060559</v>
+        <v>0.5773502497060599</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450453</v>
+        <v>60.00000037450418</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -15643,22 +15643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252872</v>
+        <v>0.5773503080252833</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673636</v>
+        <v>0.5773502478673682</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786231</v>
+        <v>60.00000021786193</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
-        <v>120.0000032289267</v>
+        <v>120.0000032289264</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -15702,22 +15702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680433</v>
+        <v>0.5773503133680389</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351202</v>
+        <v>0.577350246335125</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732713</v>
+        <v>60.00000008732674</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S7">
-        <v>120.0000037533704</v>
+        <v>120.0000037533701</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -15761,22 +15761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365946</v>
+        <v>0.57735031443659</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286717</v>
+        <v>0.5773502460286764</v>
       </c>
       <c r="Q8">
-        <v>60.00000006122007</v>
+        <v>60.00000006121969</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S8">
-        <v>120.0000038582591</v>
+        <v>120.0000038582588</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -15820,22 +15820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736972</v>
+        <v>0.5773503165736923</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157743</v>
+        <v>0.5773502454157792</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900602</v>
+        <v>60.0000000090056</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S9">
-        <v>120.0000040680366</v>
+        <v>120.0000040680363</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -15879,22 +15879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107994</v>
+        <v>0.5773503187107946</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028771</v>
+        <v>0.577350244802882</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679192</v>
+        <v>59.99999995679152</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
-        <v>120.0000042778141</v>
+        <v>120.0000042778137</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -15938,22 +15938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793506</v>
+        <v>0.5773503197793457</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964287</v>
+        <v>0.5773502444964335</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068488</v>
+        <v>59.99999993068448</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S11">
-        <v>120.0000043827028</v>
+        <v>120.0000043827025</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -15997,22 +15997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577350288791365</v>
+        <v>0.5773502887913634</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834409</v>
+        <v>0.5773502533834434</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778893</v>
+        <v>60.00000068778867</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S12">
-        <v>120.0000013409295</v>
+        <v>120.0000013409294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -16056,22 +16056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577350288791365</v>
+        <v>0.5773502887913634</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834409</v>
+        <v>0.5773502533834434</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778893</v>
+        <v>60.00000068778867</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S13">
-        <v>120.0000013409295</v>
+        <v>120.0000013409294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -16115,22 +16115,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970186</v>
+        <v>0.5773502919970164</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640947</v>
+        <v>0.5773502524640972</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094678</v>
+        <v>60.00000060946755</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
-        <v>120.0000016555957</v>
+        <v>120.0000016555955</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -16174,22 +16174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341211</v>
+        <v>0.5773502941341186</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511969</v>
+        <v>0.5773502518512001</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725377</v>
+        <v>60.00000055725348</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S15">
-        <v>120.0000018653731</v>
+        <v>120.000001865373</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -16233,19 +16233,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228139</v>
+        <v>0.5773502877228122</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898895</v>
+        <v>0.577350253689892</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389597</v>
+        <v>60.00000071389571</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -16292,19 +16292,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228139</v>
+        <v>0.5773502877228122</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898895</v>
+        <v>0.577350253689892</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389597</v>
+        <v>60.00000071389571</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -16351,22 +16351,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397749</v>
+        <v>0.5773502973397722</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318513</v>
+        <v>0.5773502509318539</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893258</v>
+        <v>60.00000047893233</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
-        <v>120.0000021800394</v>
+        <v>120.0000021800392</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -16410,22 +16410,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139799</v>
+        <v>0.5773503016139766</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060569</v>
+        <v>0.5773502497060593</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450437</v>
+        <v>60.00000037450416</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>120.0000025995943</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -16469,22 +16469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196337</v>
+        <v>0.5773503048196299</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P20">
-        <v>0.577350248786711</v>
+        <v>0.5773502487867133</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618323</v>
+        <v>60.00000029618305</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142606</v>
+        <v>120.0000029142603</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -16528,22 +16528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881848</v>
+        <v>0.5773503058881811</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962949</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802626</v>
+        <v>0.5773502484802646</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007616</v>
+        <v>60.00000027007601</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.0000030191493</v>
+        <v>120.000003019149</v>
       </c>
     </row>
   </sheetData>
@@ -16641,34 +16641,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778152</v>
+        <v>0.01243796462778153</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526074</v>
+        <v>0.0124379646752608</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911724</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110768</v>
+        <v>0.5773502692110769</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690916</v>
+        <v>0.5773502691690923</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075384</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
@@ -16718,19 +16718,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857113</v>
+        <v>0.5773502855857097</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027869</v>
+        <v>0.5773502543027893</v>
       </c>
       <c r="Q3">
-        <v>60.00000076611005</v>
+        <v>60.00000076610981</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S3">
         <v>120.0000010262632</v>
@@ -16777,22 +16777,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881848</v>
+        <v>0.577350305888181</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962949</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802646</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007619</v>
+        <v>60.00000027007601</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.0000030191493</v>
+        <v>120.000003019149</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -16836,22 +16836,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139797</v>
+        <v>0.5773503016139765</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060559</v>
+        <v>0.5773502497060599</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450453</v>
+        <v>60.00000037450418</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -16895,22 +16895,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252872</v>
+        <v>0.5773503080252833</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673636</v>
+        <v>0.5773502478673682</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786231</v>
+        <v>60.00000021786193</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
-        <v>120.0000032289267</v>
+        <v>120.0000032289264</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -16954,22 +16954,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680433</v>
+        <v>0.5773503133680389</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351202</v>
+        <v>0.577350246335125</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732713</v>
+        <v>60.00000008732674</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S7">
-        <v>120.0000037533704</v>
+        <v>120.0000037533701</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -17013,22 +17013,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365946</v>
+        <v>0.57735031443659</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286717</v>
+        <v>0.5773502460286764</v>
       </c>
       <c r="Q8">
-        <v>60.00000006122007</v>
+        <v>60.00000006121969</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S8">
-        <v>120.0000038582591</v>
+        <v>120.0000038582588</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -17072,22 +17072,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736972</v>
+        <v>0.5773503165736923</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157743</v>
+        <v>0.5773502454157792</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900602</v>
+        <v>60.0000000090056</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S9">
-        <v>120.0000040680366</v>
+        <v>120.0000040680363</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -17131,22 +17131,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107994</v>
+        <v>0.5773503187107946</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028771</v>
+        <v>0.577350244802882</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679192</v>
+        <v>59.99999995679152</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
-        <v>120.0000042778141</v>
+        <v>120.0000042778137</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -17190,22 +17190,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793506</v>
+        <v>0.5773503197793457</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964287</v>
+        <v>0.5773502444964335</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068488</v>
+        <v>59.99999993068448</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S11">
-        <v>120.0000043827028</v>
+        <v>120.0000043827025</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -17249,22 +17249,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577350288791365</v>
+        <v>0.5773502887913634</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834409</v>
+        <v>0.5773502533834434</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778893</v>
+        <v>60.00000068778867</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S12">
-        <v>120.0000013409295</v>
+        <v>120.0000013409294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -17308,22 +17308,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577350288791365</v>
+        <v>0.5773502887913634</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834409</v>
+        <v>0.5773502533834434</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778893</v>
+        <v>60.00000068778867</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S13">
-        <v>120.0000013409295</v>
+        <v>120.0000013409294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -17367,22 +17367,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970186</v>
+        <v>0.5773502919970164</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640947</v>
+        <v>0.5773502524640972</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094678</v>
+        <v>60.00000060946755</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
-        <v>120.0000016555957</v>
+        <v>120.0000016555955</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -17426,22 +17426,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341211</v>
+        <v>0.5773502941341186</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511969</v>
+        <v>0.5773502518512001</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725377</v>
+        <v>60.00000055725348</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S15">
-        <v>120.0000018653731</v>
+        <v>120.000001865373</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -17485,19 +17485,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228139</v>
+        <v>0.5773502877228122</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898895</v>
+        <v>0.577350253689892</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389597</v>
+        <v>60.00000071389571</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -17544,19 +17544,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228139</v>
+        <v>0.5773502877228122</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898895</v>
+        <v>0.577350253689892</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389597</v>
+        <v>60.00000071389571</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -17603,22 +17603,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397749</v>
+        <v>0.5773502973397722</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318513</v>
+        <v>0.5773502509318539</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893258</v>
+        <v>60.00000047893233</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
-        <v>120.0000021800394</v>
+        <v>120.0000021800392</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -17662,22 +17662,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139799</v>
+        <v>0.5773503016139766</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060569</v>
+        <v>0.5773502497060593</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450437</v>
+        <v>60.00000037450416</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>120.0000025995943</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -17721,22 +17721,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196337</v>
+        <v>0.5773503048196299</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P20">
-        <v>0.577350248786711</v>
+        <v>0.5773502487867133</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618323</v>
+        <v>60.00000029618305</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142606</v>
+        <v>120.0000029142603</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -17780,22 +17780,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881848</v>
+        <v>0.5773503058881811</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962949</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802626</v>
+        <v>0.5773502484802646</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007616</v>
+        <v>60.00000027007601</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.0000030191493</v>
+        <v>120.000003019149</v>
       </c>
     </row>
   </sheetData>
@@ -17893,19 +17893,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778152</v>
+        <v>0.01243796462778153</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526074</v>
+        <v>0.0124379646752608</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911724</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -17982,7 +17982,7 @@
         <v>29.9123040770683</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.4607573010698</v>
@@ -18035,7 +18035,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -18147,16 +18147,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618046</v>
+        <v>0.9900480149618045</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389012</v>
+        <v>0.9963798867389013</v>
       </c>
       <c r="Q6">
-        <v>29.91230409615194</v>
+        <v>29.91230409615193</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -18209,16 +18209,16 @@
         <v>0.9900480150169572</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P7">
         <v>0.9963798866977982</v>
       </c>
       <c r="Q7">
-        <v>29.91230410069565</v>
+        <v>29.91230410069564</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>149.4607573269946</v>
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480150279878</v>
+        <v>0.9900480150279877</v>
       </c>
       <c r="O8">
         <v>0.9999999999994829</v>
@@ -18274,13 +18274,13 @@
         <v>0.9963798866895777</v>
       </c>
       <c r="Q8">
-        <v>29.9123041016044</v>
+        <v>29.91230410160439</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
-        <v>149.4607573279918</v>
+        <v>149.4607573279917</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500488</v>
+        <v>0.9900480150500486</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -18333,10 +18333,10 @@
         <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
-        <v>29.91230410342189</v>
+        <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -18389,13 +18389,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
-        <v>29.91230410523938</v>
+        <v>29.91230410523937</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
         <v>149.4607573319802</v>
@@ -18445,16 +18445,16 @@
         <v>0.9900480150831403</v>
       </c>
       <c r="O11">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798866484745</v>
+        <v>0.9963798866484747</v>
       </c>
       <c r="Q11">
-        <v>29.91230410614812</v>
+        <v>29.91230410614811</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S11">
         <v>149.4607573329773</v>
@@ -18513,7 +18513,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -18572,7 +18572,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S13">
         <v>149.4607573040611</v>
@@ -18631,7 +18631,7 @@
         <v>29.91230408252077</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S14">
         <v>149.4607573070525</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -18926,7 +18926,7 @@
         <v>29.91230409069946</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.4607573160264</v>
@@ -18979,13 +18979,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
         <v>149.4607573190177</v>
@@ -19145,19 +19145,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778152</v>
+        <v>0.01243796462778153</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526074</v>
+        <v>0.0124379646752608</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911724</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19234,7 +19234,7 @@
         <v>29.9123040770683</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.4607573010698</v>
@@ -19287,7 +19287,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -19340,7 +19340,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -19399,16 +19399,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618046</v>
+        <v>0.9900480149618045</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389012</v>
+        <v>0.9963798867389013</v>
       </c>
       <c r="Q6">
-        <v>29.91230409615194</v>
+        <v>29.91230409615193</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -19461,16 +19461,16 @@
         <v>0.9900480150169572</v>
       </c>
       <c r="O7">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P7">
         <v>0.9963798866977982</v>
       </c>
       <c r="Q7">
-        <v>29.91230410069565</v>
+        <v>29.91230410069564</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>149.4607573269946</v>
@@ -19517,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480150279878</v>
+        <v>0.9900480150279877</v>
       </c>
       <c r="O8">
         <v>0.9999999999994829</v>
@@ -19526,13 +19526,13 @@
         <v>0.9963798866895777</v>
       </c>
       <c r="Q8">
-        <v>29.9123041016044</v>
+        <v>29.91230410160439</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
-        <v>149.4607573279918</v>
+        <v>149.4607573279917</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500488</v>
+        <v>0.9900480150500486</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -19585,10 +19585,10 @@
         <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
-        <v>29.91230410342189</v>
+        <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -19641,13 +19641,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
-        <v>29.91230410523938</v>
+        <v>29.91230410523937</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
         <v>149.4607573319802</v>
@@ -19697,16 +19697,16 @@
         <v>0.9900480150831403</v>
       </c>
       <c r="O11">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798866484745</v>
+        <v>0.9963798866484747</v>
       </c>
       <c r="Q11">
-        <v>29.91230410614812</v>
+        <v>29.91230410614811</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S11">
         <v>149.4607573329773</v>
@@ -19765,7 +19765,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -19824,7 +19824,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S13">
         <v>149.4607573040611</v>
@@ -19883,7 +19883,7 @@
         <v>29.91230408252077</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S14">
         <v>149.4607573070525</v>
@@ -20166,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20178,7 +20178,7 @@
         <v>29.91230409069946</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.4607573160264</v>
@@ -20231,13 +20231,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
         <v>149.4607573190177</v>
@@ -20382,16 +20382,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874293</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620925</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.333352211419</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
@@ -20403,16 +20403,16 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674504</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>0.6350853098448016</v>
@@ -20424,7 +20424,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228437282436091E-09</v>
+        <v>4.228452185141599E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20474,22 +20474,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976666</v>
+        <v>0.6350852940976675</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056282</v>
+        <v>0.6350853272056277</v>
       </c>
       <c r="Q3">
-        <v>9.908896783854493E-07</v>
+        <v>9.908898985323616E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -20533,22 +20533,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768148</v>
+        <v>0.6350852838768167</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222783</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q4">
-        <v>2.387471736534783E-06</v>
+        <v>2.387472097980717E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575629</v>
+        <v>-179.9999991575628</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20592,22 +20592,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285727</v>
+        <v>0.6350852860285736</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240352</v>
+        <v>0.6350853418240346</v>
       </c>
       <c r="Q5">
-        <v>2.093454330168488E-06</v>
+        <v>2.093454575417133E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786722</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -20651,22 +20651,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009352</v>
+        <v>0.635085282800936</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713978</v>
+        <v>0.6350853476713976</v>
       </c>
       <c r="Q6">
-        <v>2.534480219408015E-06</v>
+        <v>2.534480458873833E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991470081</v>
+        <v>-179.999999147008</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -20710,22 +20710,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112372</v>
+        <v>0.6350852801112382</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442005</v>
+        <v>0.6350853525442001</v>
       </c>
       <c r="Q7">
-        <v>2.902001796866771E-06</v>
+        <v>2.902002036332587E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206212</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -20769,22 +20769,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732977</v>
+        <v>0.6350852795732989</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187608</v>
+        <v>0.6350853535187605</v>
       </c>
       <c r="Q8">
-        <v>2.975506108421795E-06</v>
+        <v>2.975506353670437E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153439</v>
+        <v>-179.9999991153438</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -20828,22 +20828,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974184</v>
+        <v>0.6350852784974192</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678818</v>
+        <v>0.6350853554678816</v>
       </c>
       <c r="Q9">
-        <v>3.122514725959869E-06</v>
+        <v>3.122514982774165E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999991047891</v>
+        <v>-179.999999104789</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -20887,22 +20887,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215391</v>
+        <v>0.63508527742154</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085357417003</v>
+        <v>0.6350853574170024</v>
       </c>
       <c r="Q10">
-        <v>3.269523349117777E-06</v>
+        <v>3.269523600149247E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -20946,22 +20946,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768835994</v>
+        <v>0.6350852768836003</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915633</v>
+        <v>0.6350853583915628</v>
       </c>
       <c r="Q11">
-        <v>3.343027666684885E-06</v>
+        <v>3.343027923499181E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.999999088957</v>
+        <v>-179.9999990889569</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -21005,22 +21005,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838473</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293095</v>
+        <v>0.6350853301293093</v>
       </c>
       <c r="Q12">
-        <v>1.211402587547807E-06</v>
+        <v>1.211402807713654E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420007</v>
+        <v>-179.9999992420006</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -21064,22 +21064,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838473</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293095</v>
+        <v>0.6350853301293093</v>
       </c>
       <c r="Q13">
-        <v>1.211402587547807E-06</v>
+        <v>1.211402807713654E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420007</v>
+        <v>-179.9999992420006</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -21123,22 +21123,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.635085290870029</v>
+        <v>0.6350852908700304</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529915</v>
+        <v>0.6350853330529911</v>
       </c>
       <c r="Q14">
-        <v>1.431915568969225E-06</v>
+        <v>1.431915837041669E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261687</v>
+        <v>-179.9999992261685</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -21182,22 +21182,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941499</v>
+        <v>0.6350852897941507</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021118</v>
+        <v>0.6350853350021116</v>
       </c>
       <c r="Q15">
-        <v>1.57892415334847E-06</v>
+        <v>1.578924398597115E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999992156139</v>
+        <v>-179.9999992156138</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -21241,22 +21241,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217871</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547491</v>
+        <v>0.6350853291547487</v>
       </c>
       <c r="Q16">
-        <v>1.137898278327511E-06</v>
+        <v>1.137898504276184E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992472781</v>
+        <v>-179.999999247278</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -21300,22 +21300,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217871</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547491</v>
+        <v>0.6350853291547487</v>
       </c>
       <c r="Q17">
-        <v>1.137898278327511E-06</v>
+        <v>1.137898504276184E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992472781</v>
+        <v>-179.999999247278</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803312</v>
+        <v>0.6350852881803328</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257942</v>
+        <v>0.6350853379257938</v>
       </c>
       <c r="Q18">
-        <v>1.799437164761165E-06</v>
+        <v>1.799437464997996E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997818</v>
+        <v>-179.9999991997817</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -21418,22 +21418,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285733</v>
+        <v>0.6350852860285751</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240364</v>
+        <v>0.635085341824036</v>
       </c>
       <c r="Q19">
-        <v>2.093454459453646E-06</v>
+        <v>2.093454789602063E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -21477,22 +21477,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147546</v>
+        <v>0.6350852844147564</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477176</v>
+        <v>0.6350853447477172</v>
       </c>
       <c r="Q20">
-        <v>2.313967427614575E-06</v>
+        <v>2.313967778616925E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628403</v>
+        <v>-179.9999991628401</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -21536,22 +21536,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768151</v>
+        <v>0.6350852838768168</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222783</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q21">
-        <v>2.387471738462294E-06</v>
+        <v>2.387472083681817E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575629</v>
+        <v>-179.9999991575628</v>
       </c>
     </row>
   </sheetData>
@@ -21637,7 +21637,7 @@
         <v>57.73503018874288</v>
       </c>
       <c r="D2">
-        <v>57.73503019620927</v>
+        <v>57.73503019620926</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -21655,19 +21655,19 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646413</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448016</v>
+        <v>0.635085309844802</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228460155002215E-09</v>
+        <v>4.228448442713897E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -21726,16 +21726,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478031</v>
+        <v>0.6350852933478039</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853280315722</v>
+        <v>0.6350853280315725</v>
       </c>
       <c r="Q3">
-        <v>1.037873459059059E-06</v>
+        <v>1.03787346622501E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21785,22 +21785,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269517</v>
+        <v>0.6350852831269536</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482219</v>
+        <v>0.6350853465482225</v>
       </c>
       <c r="Q4">
-        <v>2.434455480926055E-06</v>
+        <v>2.434455524999336E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224675</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -21844,16 +21844,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852852787092</v>
+        <v>0.6350852852787102</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499791</v>
+        <v>0.6350853426499797</v>
       </c>
       <c r="Q5">
-        <v>2.140438118194373E-06</v>
+        <v>2.140438119577491E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21903,16 +21903,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510717</v>
+        <v>0.6350852820510726</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973421</v>
+        <v>0.6350853484973423</v>
       </c>
       <c r="Q6">
-        <v>2.581464013844507E-06</v>
+        <v>2.581464009444797E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21962,16 +21962,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613738</v>
+        <v>0.6350852793613748</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701444</v>
+        <v>0.6350853533701449</v>
       </c>
       <c r="Q7">
-        <v>2.948985597609237E-06</v>
+        <v>2.9489855874267E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22021,22 +22021,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234342</v>
+        <v>0.6350852788234355</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447048</v>
+        <v>0.6350853543447055</v>
       </c>
       <c r="Q8">
-        <v>3.022489920834545E-06</v>
+        <v>3.022489916434834E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802486</v>
+        <v>-179.9999990802485</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -22080,16 +22080,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475551</v>
+        <v>0.635085277747556</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938259</v>
+        <v>0.6350853562938265</v>
       </c>
       <c r="Q9">
-        <v>3.169498532799052E-06</v>
+        <v>3.169498528399341E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22139,16 +22139,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716756</v>
+        <v>0.6350852766716766</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085358242947</v>
+        <v>0.6350853582429472</v>
       </c>
       <c r="Q10">
-        <v>3.316507156166221E-06</v>
+        <v>3.316507151766509E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22198,16 +22198,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635085276133736</v>
+        <v>0.6350852761337369</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175074</v>
+        <v>0.635085359217508</v>
       </c>
       <c r="Q11">
-        <v>3.390011462272303E-06</v>
+        <v>3.390011469438246E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22257,16 +22257,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339836</v>
+        <v>0.6350852917339848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552535</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q12">
-        <v>1.258386368535307E-06</v>
+        <v>1.258386375701257E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22316,16 +22316,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339836</v>
+        <v>0.6350852917339848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552535</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q13">
-        <v>1.258386368535307E-06</v>
+        <v>1.258386375701257E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22375,16 +22375,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201657</v>
+        <v>0.6350852901201669</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789353</v>
+        <v>0.6350853338789356</v>
       </c>
       <c r="Q14">
-        <v>1.47889934634108E-06</v>
+        <v>1.478899365343166E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -22434,22 +22434,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442863</v>
+        <v>0.6350852890442873</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.635085335828056</v>
+        <v>0.6350853358280564</v>
       </c>
       <c r="Q15">
-        <v>1.625907934859119E-06</v>
+        <v>1.62590793624224E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805186</v>
+        <v>-179.9999991805185</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -22493,16 +22493,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719236</v>
+        <v>0.6350852922719246</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806931</v>
+        <v>0.6350853299806937</v>
       </c>
       <c r="Q16">
-        <v>1.18488205921038E-06</v>
+        <v>1.184882072159157E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719236</v>
+        <v>0.6350852922719246</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806931</v>
+        <v>0.6350853299806937</v>
       </c>
       <c r="Q17">
-        <v>1.18488205921038E-06</v>
+        <v>1.184882072159157E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635085287430468</v>
+        <v>0.6350852874304694</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517377</v>
+        <v>0.6350853387517386</v>
       </c>
       <c r="Q18">
-        <v>1.846420912895823E-06</v>
+        <v>1.846420954825995E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991646865</v>
+        <v>-179.9999991646864</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787116</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499797</v>
+        <v>0.6350853426499805</v>
       </c>
       <c r="Q19">
-        <v>2.140438188020838E-06</v>
+        <v>2.140438241923574E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22729,16 +22729,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648914</v>
+        <v>0.6350852836648931</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736613</v>
+        <v>0.635085345573662</v>
       </c>
       <c r="Q20">
-        <v>2.360951163349671E-06</v>
+        <v>2.360951212071922E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22788,22 +22788,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269517</v>
+        <v>0.6350852831269536</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482219</v>
+        <v>0.6350853465482226</v>
       </c>
       <c r="Q21">
-        <v>2.43445547430202E-06</v>
+        <v>2.43445552302427E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224675</v>
       </c>
     </row>
   </sheetData>
@@ -22907,16 +22907,16 @@
         <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714032</v>
+        <v>0.01094540889714034</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674504</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -23872,7 +23872,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761587</v>
+        <v>29.52465667761588</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -23990,7 +23990,7 @@
         <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165358</v>
+        <v>29.52465668165359</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24159,16 +24159,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646413</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -24534,7 +24534,7 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716144</v>
+        <v>29.52465668716143</v>
       </c>
       <c r="R8">
         <v>-90.55768081750685</v>
@@ -25390,37 +25390,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050825</v>
+        <v>46.18802315050824</v>
       </c>
       <c r="D2">
-        <v>46.18802315729567</v>
+        <v>46.18802315729565</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666759928261</v>
+        <v>266.666675992826</v>
       </c>
       <c r="G2">
-        <v>266.6666760320133</v>
+        <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>0.577350269205661</v>
@@ -25429,16 +25429,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848034</v>
+        <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534698727790577E-09</v>
+        <v>4.534691768565557E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -25482,16 +25482,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393518</v>
+        <v>0.5773502543393528</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594388</v>
       </c>
       <c r="Q3">
-        <v>1.029154383151223E-06</v>
+        <v>1.029154300785039E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -25541,22 +25541,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168281</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619091</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q4">
-        <v>3.022040310265698E-06</v>
+        <v>3.022040072951017E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426206</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877032</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485434799644E-06</v>
+        <v>2.602485221996409E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -25659,22 +25659,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039283</v>
+        <v>0.5773502479039319</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990093</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817856926486E-06</v>
+        <v>3.231817602307429E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788956</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -25718,22 +25718,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577350246371685</v>
+        <v>0.5773502463716891</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417656</v>
       </c>
       <c r="Q7">
-        <v>3.756261558609525E-06</v>
+        <v>3.756261254642463E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094306</v>
+        <v>-179.9999999094308</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -25777,22 +25777,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652364</v>
+        <v>0.5773502460652405</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103167</v>
       </c>
       <c r="Q8">
-        <v>3.861150289522008E-06</v>
+        <v>3.861149973305999E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355376</v>
+        <v>-179.9999999355378</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523393</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474189</v>
       </c>
       <c r="Q9">
-        <v>4.070927764967584E-06</v>
+        <v>4.07092745911977E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877517</v>
+        <v>-179.9999999877518</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -25895,22 +25895,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394421</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845211</v>
       </c>
       <c r="Q10">
-        <v>4.280705223289341E-06</v>
+        <v>4.280704932167561E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600197</v>
+        <v>179.9999999600195</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -25954,22 +25954,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329934</v>
+        <v>0.5773502445329978</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530711</v>
+        <v>0.5773503197530722</v>
       </c>
       <c r="Q11">
-        <v>4.385593960083472E-06</v>
+        <v>4.385593645743734E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339126</v>
+        <v>179.9999999339124</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -26013,16 +26013,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200058</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650912</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.343820561211436E-06</v>
+        <v>1.34382050068627E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26072,16 +26072,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200058</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650912</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.343820561211436E-06</v>
+        <v>1.34382050068627E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26131,16 +26131,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006597</v>
+        <v>0.5773502525006605</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486765514254E-06</v>
+        <v>1.658486656648724E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26190,22 +26190,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877618</v>
+        <v>0.5773502518877637</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.577350294107846</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264270145001E-06</v>
+        <v>1.868264105932931E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -26249,22 +26249,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264543</v>
+        <v>0.5773502537264555</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965402</v>
+        <v>0.5773502876965413</v>
       </c>
       <c r="Q16">
-        <v>1.238931831996958E-06</v>
+        <v>1.23893177560642E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -26308,22 +26308,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264543</v>
+        <v>0.5773502537264555</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965402</v>
+        <v>0.5773502876965413</v>
       </c>
       <c r="Q17">
-        <v>1.238931831996958E-06</v>
+        <v>1.23893177560642E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -26367,16 +26367,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684166</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135</v>
+        <v>0.5773502973135005</v>
       </c>
       <c r="Q18">
-        <v>2.18293043832633E-06</v>
+        <v>2.182930287067832E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426223</v>
+        <v>0.5773502497426224</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877044</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q19">
-        <v>2.602485372065144E-06</v>
+        <v>2.602485191307318E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -26485,7 +26485,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232767</v>
+        <v>0.5773502488232766</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -26494,7 +26494,7 @@
         <v>0.5773503047933579</v>
       </c>
       <c r="Q20">
-        <v>2.917151577798895E-06</v>
+        <v>2.917151355158511E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -26544,22 +26544,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168281</v>
+        <v>0.5773502485168279</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619091</v>
+        <v>0.5773503058619089</v>
       </c>
       <c r="Q21">
-        <v>3.022040308375226E-06</v>
+        <v>3.022040073485898E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
     </row>
   </sheetData>
@@ -26986,7 +26986,7 @@
         <v>1.086862152221152</v>
       </c>
       <c r="G18">
-        <v>-0.5576808399514955</v>
+        <v>-0.5576808399514956</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27009,7 +27009,7 @@
         <v>1.086862152198252</v>
       </c>
       <c r="G19">
-        <v>-0.5576808346052483</v>
+        <v>-0.5576808346052484</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27055,7 +27055,7 @@
         <v>1.086862152175352</v>
       </c>
       <c r="G21">
-        <v>-0.5576808292590011</v>
+        <v>-0.5576808292590012</v>
       </c>
     </row>
   </sheetData>
@@ -27138,37 +27138,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050825</v>
+        <v>46.18802315050824</v>
       </c>
       <c r="D2">
-        <v>46.18802315729567</v>
+        <v>46.18802315729565</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666759928261</v>
+        <v>266.666675992826</v>
       </c>
       <c r="G2">
-        <v>266.6666760320133</v>
+        <v>266.6666760320131</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>0.577350269205661</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848034</v>
+        <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534698727790577E-09</v>
+        <v>4.534691768565557E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -27230,16 +27230,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393518</v>
+        <v>0.5773502543393528</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594388</v>
       </c>
       <c r="Q3">
-        <v>1.029154383151223E-06</v>
+        <v>1.029154300785039E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -27289,22 +27289,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168281</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619091</v>
+        <v>0.5773503058619087</v>
       </c>
       <c r="Q4">
-        <v>3.022040310265698E-06</v>
+        <v>3.022040072951017E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -27348,22 +27348,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426206</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877032</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485434799644E-06</v>
+        <v>2.602485221996409E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -27407,22 +27407,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039283</v>
+        <v>0.5773502479039319</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990093</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817856926486E-06</v>
+        <v>3.231817602307429E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788956</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -27466,22 +27466,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577350246371685</v>
+        <v>0.5773502463716891</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417656</v>
       </c>
       <c r="Q7">
-        <v>3.756261558609525E-06</v>
+        <v>3.756261254642463E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094306</v>
+        <v>-179.9999999094308</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -27525,22 +27525,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652364</v>
+        <v>0.5773502460652405</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103167</v>
       </c>
       <c r="Q8">
-        <v>3.861150289522008E-06</v>
+        <v>3.861149973305999E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355376</v>
+        <v>-179.9999999355378</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523393</v>
+        <v>0.5773502454523433</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474189</v>
       </c>
       <c r="Q9">
-        <v>4.070927764967584E-06</v>
+        <v>4.07092745911977E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877517</v>
+        <v>-179.9999999877518</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -27643,22 +27643,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394421</v>
+        <v>0.5773502448394463</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845211</v>
       </c>
       <c r="Q10">
-        <v>4.280705223289341E-06</v>
+        <v>4.280704932167561E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600197</v>
+        <v>179.9999999600195</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -27702,22 +27702,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329934</v>
+        <v>0.5773502445329978</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530711</v>
+        <v>0.5773503197530722</v>
       </c>
       <c r="Q11">
-        <v>4.385593960083472E-06</v>
+        <v>4.385593645743734E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339126</v>
+        <v>179.9999999339124</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -27761,16 +27761,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200058</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650912</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q12">
-        <v>1.343820561211436E-06</v>
+        <v>1.34382050068627E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -27820,16 +27820,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200058</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650912</v>
+        <v>0.5773502887650924</v>
       </c>
       <c r="Q13">
-        <v>1.343820561211436E-06</v>
+        <v>1.34382050068627E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -27879,16 +27879,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006597</v>
+        <v>0.5773502525006605</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707453</v>
       </c>
       <c r="Q14">
-        <v>1.658486765514254E-06</v>
+        <v>1.658486656648724E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -27938,22 +27938,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877618</v>
+        <v>0.5773502518877637</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.577350294107846</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264270145001E-06</v>
+        <v>1.868264105932931E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -27997,22 +27997,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264543</v>
+        <v>0.5773502537264555</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965402</v>
+        <v>0.5773502876965413</v>
       </c>
       <c r="Q16">
-        <v>1.238931831996958E-06</v>
+        <v>1.23893177560642E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264543</v>
+        <v>0.5773502537264555</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965402</v>
+        <v>0.5773502876965413</v>
       </c>
       <c r="Q17">
-        <v>1.238931831996958E-06</v>
+        <v>1.23893177560642E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -28115,16 +28115,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684166</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135</v>
+        <v>0.5773502973135005</v>
       </c>
       <c r="Q18">
-        <v>2.18293043832633E-06</v>
+        <v>2.182930287067832E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -28174,16 +28174,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426223</v>
+        <v>0.5773502497426224</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877044</v>
+        <v>0.5773503015877047</v>
       </c>
       <c r="Q19">
-        <v>2.602485372065144E-06</v>
+        <v>2.602485191307318E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232767</v>
+        <v>0.5773502488232766</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -28242,7 +28242,7 @@
         <v>0.5773503047933579</v>
       </c>
       <c r="Q20">
-        <v>2.917151577798895E-06</v>
+        <v>2.917151355158511E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -28292,22 +28292,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168281</v>
+        <v>0.5773502485168279</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619091</v>
+        <v>0.5773503058619089</v>
       </c>
       <c r="Q21">
-        <v>3.022040308375226E-06</v>
+        <v>3.022040073485898E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
     </row>
   </sheetData>
@@ -28393,7 +28393,7 @@
         <v>0.8054271382329722</v>
       </c>
       <c r="D2">
-        <v>0.8054271382347128</v>
+        <v>0.8054271382347127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -28402,25 +28402,25 @@
         <v>4.650135750714364</v>
       </c>
       <c r="G2">
-        <v>4.650135750724414</v>
+        <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>0.9963798871970527</v>
@@ -28550,7 +28550,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -28603,16 +28603,16 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q5">
-        <v>29.46075731603254</v>
+        <v>29.46075731603253</v>
       </c>
       <c r="R5">
-        <v>-90.63269605801422</v>
+        <v>-90.63269605801423</v>
       </c>
       <c r="S5">
         <v>149.912304090694</v>
@@ -28718,16 +28718,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986363</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177869</v>
+        <v>0.9900480150177871</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700075</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -28786,10 +28786,10 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799785</v>
+        <v>29.46075732799784</v>
       </c>
       <c r="R8">
-        <v>-90.63269603492031</v>
+        <v>-90.63269603492033</v>
       </c>
       <c r="S8">
         <v>149.9123041015989</v>
@@ -28836,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9963798866739746</v>
+        <v>0.9963798866739747</v>
       </c>
       <c r="O9">
         <v>0.9864427565983545</v>
@@ -28845,10 +28845,10 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
-        <v>-90.63269603107133</v>
+        <v>-90.63269603107135</v>
       </c>
       <c r="S9">
         <v>149.9123041034164</v>
@@ -28895,13 +28895,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9963798866575332</v>
+        <v>0.9963798866575334</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036179</v>
+        <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729397</v>
+        <v>0.9900480150729396</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
@@ -28960,7 +28960,7 @@
         <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839702</v>
+        <v>0.9900480150839701</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -29025,7 +29025,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S12">
         <v>149.9123040797891</v>
@@ -29084,7 +29084,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S13">
         <v>149.9123040797891</v>
@@ -29131,7 +29131,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630486</v>
+        <v>0.9963798868630487</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -29140,7 +29140,7 @@
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705856</v>
+        <v>29.46075730705855</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -29370,7 +29370,7 @@
         <v>0.9963798868219457</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509825</v>
+        <v>0.9864427565509826</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -29429,16 +29429,16 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603254</v>
+        <v>29.46075731603253</v>
       </c>
       <c r="R19">
-        <v>-90.63269605801422</v>
+        <v>-90.63269605801423</v>
       </c>
       <c r="S19">
         <v>149.912304090694</v>
@@ -29485,7 +29485,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644013</v>
+        <v>0.9963798867644014</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -29553,7 +29553,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -29645,7 +29645,7 @@
         <v>0.8054271382329722</v>
       </c>
       <c r="D2">
-        <v>0.8054271382347128</v>
+        <v>0.8054271382347127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -29654,25 +29654,25 @@
         <v>4.650135750714364</v>
       </c>
       <c r="G2">
-        <v>4.650135750724414</v>
+        <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366947</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.01243796465911615</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940133</v>
+        <v>0.1243796443940134</v>
       </c>
       <c r="N2">
         <v>0.9963798871970527</v>
@@ -29802,7 +29802,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -29855,16 +29855,16 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q5">
-        <v>29.46075731603254</v>
+        <v>29.46075731603253</v>
       </c>
       <c r="R5">
-        <v>-90.63269605801422</v>
+        <v>-90.63269605801423</v>
       </c>
       <c r="S5">
         <v>149.912304090694</v>
@@ -29970,16 +29970,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986363</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177869</v>
+        <v>0.9900480150177871</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700075</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -30038,10 +30038,10 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799785</v>
+        <v>29.46075732799784</v>
       </c>
       <c r="R8">
-        <v>-90.63269603492031</v>
+        <v>-90.63269603492033</v>
       </c>
       <c r="S8">
         <v>149.9123041015989</v>
@@ -30088,7 +30088,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9963798866739746</v>
+        <v>0.9963798866739747</v>
       </c>
       <c r="O9">
         <v>0.9864427565983545</v>
@@ -30097,10 +30097,10 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
-        <v>-90.63269603107133</v>
+        <v>-90.63269603107135</v>
       </c>
       <c r="S9">
         <v>149.9123041034164</v>
@@ -30147,13 +30147,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9963798866575332</v>
+        <v>0.9963798866575334</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036179</v>
+        <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729397</v>
+        <v>0.9900480150729396</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
@@ -30212,7 +30212,7 @@
         <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839702</v>
+        <v>0.9900480150839701</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -30277,7 +30277,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S12">
         <v>149.9123040797891</v>
@@ -30336,7 +30336,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110812</v>
+        <v>-90.63269608110814</v>
       </c>
       <c r="S13">
         <v>149.9123040797891</v>
@@ -30383,7 +30383,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630486</v>
+        <v>0.9963798868630487</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -30392,7 +30392,7 @@
         <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705856</v>
+        <v>29.46075730705855</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30622,7 +30622,7 @@
         <v>0.9963798868219457</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509825</v>
+        <v>0.9864427565509826</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -30681,16 +30681,16 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603254</v>
+        <v>29.46075731603253</v>
       </c>
       <c r="R19">
-        <v>-90.63269605801422</v>
+        <v>-90.63269605801423</v>
       </c>
       <c r="S19">
         <v>149.912304090694</v>
@@ -30737,7 +30737,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644013</v>
+        <v>0.9963798867644014</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -30805,7 +30805,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -30893,7 +30893,7 @@
         <v>1.086862152270357</v>
       </c>
       <c r="G3">
-        <v>-0.5576808535978321</v>
+        <v>-0.5576808535978324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30916,7 +30916,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G4">
-        <v>-0.5576808282031587</v>
+        <v>-0.557680828203159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30939,7 +30939,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G5">
-        <v>-0.5576808335494056</v>
+        <v>-0.5576808335494057</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30962,7 +30962,7 @@
         <v>1.086862152150132</v>
       </c>
       <c r="G6">
-        <v>-0.5576808255300347</v>
+        <v>-0.557680825530035</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30985,7 +30985,7 @@
         <v>1.086862152121506</v>
       </c>
       <c r="G7">
-        <v>-0.5576808188472258</v>
+        <v>-0.557680818847226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31008,7 +31008,7 @@
         <v>1.086862152115781</v>
       </c>
       <c r="G8">
-        <v>-0.5576808175106642</v>
+        <v>-0.5576808175106643</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31031,7 +31031,7 @@
         <v>1.086862152104331</v>
       </c>
       <c r="G9">
-        <v>-0.5576808148375405</v>
+        <v>-0.5576808148375406</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31054,7 +31054,7 @@
         <v>1.086862152092881</v>
       </c>
       <c r="G10">
-        <v>-0.5576808121644168</v>
+        <v>-0.5576808121644169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -31100,7 +31100,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G12">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31123,7 +31123,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G13">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31146,7 +31146,7 @@
         <v>1.086862152236007</v>
       </c>
       <c r="G14">
-        <v>-0.5576808455784618</v>
+        <v>-0.557680845578462</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31192,7 +31192,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G16">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -31215,7 +31215,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G17">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -31238,7 +31238,7 @@
         <v>1.086862152207382</v>
       </c>
       <c r="G18">
-        <v>-0.5576808388956529</v>
+        <v>-0.5576808388956532</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -31261,7 +31261,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G19">
-        <v>-0.5576808335494059</v>
+        <v>-0.5576808335494062</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31284,7 +31284,7 @@
         <v>1.086862152167306</v>
       </c>
       <c r="G20">
-        <v>-0.5576808295397205</v>
+        <v>-0.5576808295397209</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -31307,7 +31307,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G21">
-        <v>-0.5576808282031587</v>
+        <v>-0.5576808282031591</v>
       </c>
     </row>
   </sheetData>
@@ -31357,7 +31357,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -31853,7 +31853,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32349,7 +32349,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32381,7 +32381,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32404,7 +32404,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32427,7 +32427,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32450,7 +32450,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32470,10 +32470,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32493,10 +32493,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32516,10 +32516,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32539,10 +32539,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32562,7 +32562,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -32588,7 +32588,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -32611,7 +32611,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32634,7 +32634,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -32657,7 +32657,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32677,10 +32677,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -32726,7 +32726,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -32749,7 +32749,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32772,7 +32772,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -32795,7 +32795,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
@@ -32845,7 +32845,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32877,7 +32877,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32900,7 +32900,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32923,7 +32923,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32946,7 +32946,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32966,10 +32966,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32989,10 +32989,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -33012,10 +33012,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33035,10 +33035,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -33058,7 +33058,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -33084,7 +33084,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33107,7 +33107,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33130,7 +33130,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33153,7 +33153,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33173,10 +33173,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -33196,10 +33196,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -33222,7 +33222,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -33245,7 +33245,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33268,7 +33268,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -33291,7 +33291,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
